--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H2">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I2">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J2">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N2">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O2">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P2">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q2">
-        <v>0.4223624030166765</v>
+        <v>0.6718264819186667</v>
       </c>
       <c r="R2">
-        <v>0.4223624030166765</v>
+        <v>4.030958891512</v>
       </c>
       <c r="S2">
-        <v>0.04187347382245979</v>
+        <v>0.02348072965058768</v>
       </c>
       <c r="T2">
-        <v>0.04187347382245979</v>
+        <v>0.01723781533374798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H3">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I3">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J3">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N3">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O3">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P3">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q3">
-        <v>0.2152046616895859</v>
+        <v>0.3727695383995555</v>
       </c>
       <c r="R3">
-        <v>0.2152046616895859</v>
+        <v>3.354925845596</v>
       </c>
       <c r="S3">
-        <v>0.0213356271850134</v>
+        <v>0.01302851404150809</v>
       </c>
       <c r="T3">
-        <v>0.0213356271850134</v>
+        <v>0.01434685734617097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H4">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I4">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J4">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N4">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O4">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P4">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q4">
-        <v>2.408396168746379</v>
+        <v>4.397359152885445</v>
       </c>
       <c r="R4">
-        <v>2.408396168746379</v>
+        <v>39.57623237596901</v>
       </c>
       <c r="S4">
-        <v>0.2387710487624347</v>
+        <v>0.1536902819766199</v>
       </c>
       <c r="T4">
-        <v>0.2387710487624347</v>
+        <v>0.1692420596843541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H5">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I5">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J5">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N5">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O5">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P5">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q5">
-        <v>2.059350999752949</v>
+        <v>3.420868347992334</v>
       </c>
       <c r="R5">
-        <v>2.059350999752949</v>
+        <v>30.787815131931</v>
       </c>
       <c r="S5">
-        <v>0.204166326272196</v>
+        <v>0.1195613555155821</v>
       </c>
       <c r="T5">
-        <v>0.204166326272196</v>
+        <v>0.131659658671123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H6">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I6">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J6">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N6">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O6">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P6">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q6">
-        <v>0.2832676733076805</v>
+        <v>0.5136560795612223</v>
       </c>
       <c r="R6">
-        <v>0.2832676733076805</v>
+        <v>4.622904716051</v>
       </c>
       <c r="S6">
-        <v>0.02808346912101908</v>
+        <v>0.0179525813021136</v>
       </c>
       <c r="T6">
-        <v>0.02808346912101908</v>
+        <v>0.01976918642574119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H7">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I7">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J7">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N7">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O7">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P7">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q7">
-        <v>0.2423604467142669</v>
+        <v>0.3854581319553333</v>
       </c>
       <c r="R7">
-        <v>0.2423604467142669</v>
+        <v>2.312748791732</v>
       </c>
       <c r="S7">
-        <v>0.02402788162157704</v>
+        <v>0.01347198782967811</v>
       </c>
       <c r="T7">
-        <v>0.02402788162157704</v>
+        <v>0.009890137224959667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H8">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I8">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J8">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N8">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O8">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P8">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q8">
-        <v>0.3342098880504877</v>
+        <v>0.9553665638720001</v>
       </c>
       <c r="R8">
-        <v>0.3342098880504877</v>
+        <v>5.732199383232</v>
       </c>
       <c r="S8">
-        <v>0.03313393639806703</v>
+        <v>0.03339062184542632</v>
       </c>
       <c r="T8">
-        <v>0.03313393639806703</v>
+        <v>0.0245129253569028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H9">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I9">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J9">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N9">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O9">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P9">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q9">
-        <v>0.1702886558498431</v>
+        <v>0.5300945446506666</v>
       </c>
       <c r="R9">
-        <v>0.1702886558498431</v>
+        <v>4.770850901856</v>
       </c>
       <c r="S9">
-        <v>0.01688260489584516</v>
+        <v>0.0185271153001387</v>
       </c>
       <c r="T9">
-        <v>0.01688260489584516</v>
+        <v>0.02040185698847233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H10">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I10">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J10">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N10">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O10">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P10">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q10">
-        <v>1.905732631950599</v>
+        <v>6.253236538109335</v>
       </c>
       <c r="R10">
-        <v>1.905732631950599</v>
+        <v>56.27912884298402</v>
       </c>
       <c r="S10">
-        <v>0.1889364320939334</v>
+        <v>0.2185542852868635</v>
       </c>
       <c r="T10">
-        <v>0.1889364320939334</v>
+        <v>0.2406695915908177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H11">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I11">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J11">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N11">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O11">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P11">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q11">
-        <v>1.629537719665162</v>
+        <v>4.864624016824001</v>
       </c>
       <c r="R11">
-        <v>1.629537719665162</v>
+        <v>43.781616151416</v>
       </c>
       <c r="S11">
-        <v>0.1615541642905555</v>
+        <v>0.1700214630786595</v>
       </c>
       <c r="T11">
-        <v>0.1615541642905555</v>
+        <v>0.1872257779210598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H12">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I12">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J12">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N12">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O12">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P12">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q12">
-        <v>0.224146033615459</v>
+        <v>0.7304413519706668</v>
       </c>
       <c r="R12">
-        <v>0.224146033615459</v>
+        <v>6.573972167736001</v>
       </c>
       <c r="S12">
-        <v>0.02222208464571722</v>
+        <v>0.02552935374361944</v>
       </c>
       <c r="T12">
-        <v>0.02222208464571722</v>
+        <v>0.02811264547382317</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5855440000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.756632</v>
+      </c>
+      <c r="I13">
+        <v>0.4851805936269489</v>
+      </c>
+      <c r="J13">
+        <v>0.5149870038950204</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.936118</v>
+      </c>
+      <c r="N13">
+        <v>1.872236</v>
+      </c>
+      <c r="O13">
+        <v>0.03948582161753104</v>
+      </c>
+      <c r="P13">
+        <v>0.02730982812686961</v>
+      </c>
+      <c r="Q13">
+        <v>0.5481382781920001</v>
+      </c>
+      <c r="R13">
+        <v>3.288829669152</v>
+      </c>
+      <c r="S13">
+        <v>0.01915775437224152</v>
+      </c>
+      <c r="T13">
+        <v>0.01406420656394454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2095515</v>
+      </c>
+      <c r="H14">
+        <v>0.419103</v>
+      </c>
+      <c r="I14">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J14">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.631588</v>
+      </c>
+      <c r="N14">
+        <v>3.263176</v>
+      </c>
+      <c r="O14">
+        <v>0.06882101692447344</v>
+      </c>
+      <c r="P14">
+        <v>0.04759911448542056</v>
+      </c>
+      <c r="Q14">
+        <v>0.341901712782</v>
+      </c>
+      <c r="R14">
+        <v>1.367606851128</v>
+      </c>
+      <c r="S14">
+        <v>0.01194966542845944</v>
+      </c>
+      <c r="T14">
+        <v>0.005848373794769783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2095515</v>
+      </c>
+      <c r="H15">
+        <v>0.419103</v>
+      </c>
+      <c r="I15">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J15">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9053026666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.715908</v>
+      </c>
+      <c r="O15">
+        <v>0.03818601886287323</v>
+      </c>
+      <c r="P15">
+        <v>0.03961625601066862</v>
+      </c>
+      <c r="Q15">
+        <v>0.189707531754</v>
+      </c>
+      <c r="R15">
+        <v>1.138245190524</v>
+      </c>
+      <c r="S15">
+        <v>0.00663038952122644</v>
+      </c>
+      <c r="T15">
+        <v>0.004867541676025324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2095515</v>
+      </c>
+      <c r="H16">
+        <v>0.419103</v>
+      </c>
+      <c r="I16">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J16">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.67936233333334</v>
+      </c>
+      <c r="N16">
+        <v>32.038087</v>
+      </c>
+      <c r="O16">
+        <v>0.450459660088771</v>
+      </c>
+      <c r="P16">
+        <v>0.4673313885021416</v>
+      </c>
+      <c r="Q16">
+        <v>2.237876395993501</v>
+      </c>
+      <c r="R16">
+        <v>13.427258375961</v>
+      </c>
+      <c r="S16">
+        <v>0.07821509282528756</v>
+      </c>
+      <c r="T16">
+        <v>0.05741973722696982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.204865317855414</v>
-      </c>
-      <c r="H13">
-        <v>0.204865317855414</v>
-      </c>
-      <c r="I13">
-        <v>0.4417421732153001</v>
-      </c>
-      <c r="J13">
-        <v>0.4417421732153001</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.93611099290629</v>
-      </c>
-      <c r="N13">
-        <v>0.93611099290629</v>
-      </c>
-      <c r="O13">
-        <v>0.04304083251275891</v>
-      </c>
-      <c r="P13">
-        <v>0.04304083251275891</v>
-      </c>
-      <c r="Q13">
-        <v>0.1917766761096943</v>
-      </c>
-      <c r="R13">
-        <v>0.1917766761096943</v>
-      </c>
-      <c r="S13">
-        <v>0.01901295089118187</v>
-      </c>
-      <c r="T13">
-        <v>0.01901295089118187</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2095515</v>
+      </c>
+      <c r="H17">
+        <v>0.419103</v>
+      </c>
+      <c r="I17">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J17">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.307871</v>
+      </c>
+      <c r="N17">
+        <v>24.923613</v>
+      </c>
+      <c r="O17">
+        <v>0.3504292325619839</v>
+      </c>
+      <c r="P17">
+        <v>0.3635543741978111</v>
+      </c>
+      <c r="Q17">
+        <v>1.7409268298565</v>
+      </c>
+      <c r="R17">
+        <v>10.445560979139</v>
+      </c>
+      <c r="S17">
+        <v>0.06084641396774232</v>
+      </c>
+      <c r="T17">
+        <v>0.04466893760562823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2095515</v>
+      </c>
+      <c r="H18">
+        <v>0.419103</v>
+      </c>
+      <c r="I18">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J18">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.247457666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.742373</v>
+      </c>
+      <c r="O18">
+        <v>0.05261824994436759</v>
+      </c>
+      <c r="P18">
+        <v>0.05458903867708846</v>
+      </c>
+      <c r="Q18">
+        <v>0.2614066252365</v>
+      </c>
+      <c r="R18">
+        <v>1.568439751419</v>
+      </c>
+      <c r="S18">
+        <v>0.009136314898634548</v>
+      </c>
+      <c r="T18">
+        <v>0.006707206777524098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2095515</v>
+      </c>
+      <c r="H19">
+        <v>0.419103</v>
+      </c>
+      <c r="I19">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J19">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.936118</v>
+      </c>
+      <c r="N19">
+        <v>1.872236</v>
+      </c>
+      <c r="O19">
+        <v>0.03948582161753104</v>
+      </c>
+      <c r="P19">
+        <v>0.02730982812686961</v>
+      </c>
+      <c r="Q19">
+        <v>0.196164931077</v>
+      </c>
+      <c r="R19">
+        <v>0.784659724308</v>
+      </c>
+      <c r="S19">
+        <v>0.006856079415611412</v>
+      </c>
+      <c r="T19">
+        <v>0.003355484337965405</v>
       </c>
     </row>
   </sheetData>
